--- a/case.xlsx
+++ b/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,12 @@
     <t>ret</t>
   </si>
   <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>tc_1</t>
+  </si>
+  <si>
     <t>check iccid</t>
   </si>
   <si>
@@ -60,13 +66,19 @@
     <t/>
   </si>
   <si>
+    <t>tc_2</t>
+  </si>
+  <si>
     <t>check sn</t>
   </si>
   <si>
     <t>cat /oemdata/configs/7B120-1.cfg | grep SN,exit</t>
   </si>
   <si>
-    <t>TBOXSN="C52XBDLM1119002"</t>
+    <t>TBOXSN="C52XBDLM11190020"</t>
+  </si>
+  <si>
+    <t>tc_3</t>
   </si>
   <si>
     <t>check vin</t>
@@ -78,6 +90,9 @@
     <t>VIN="12345678912345678"</t>
   </si>
   <si>
+    <t>tc_4</t>
+  </si>
+  <si>
     <t>check imsi</t>
   </si>
   <si>
@@ -87,6 +102,9 @@
     <t>IMSI="460095004701211"</t>
   </si>
   <si>
+    <t>tc_5</t>
+  </si>
+  <si>
     <t>check tbox_software</t>
   </si>
   <si>
@@ -96,30 +114,45 @@
     <t>tbox_software = "1.09"</t>
   </si>
   <si>
+    <t>tc_6</t>
+  </si>
+  <si>
     <t>check hardware</t>
   </si>
   <si>
     <t>tbox_hardware = "1.00"</t>
   </si>
   <si>
+    <t>tc_7</t>
+  </si>
+  <si>
     <t>check mcu_software</t>
   </si>
   <si>
     <t>mcu_software = "220815V1.0"</t>
   </si>
   <si>
+    <t>tc_8</t>
+  </si>
+  <si>
     <t>check um220_software</t>
   </si>
   <si>
     <t>um220_software="R3.6.0.0Build7723"</t>
   </si>
   <si>
+    <t>tc_9</t>
+  </si>
+  <si>
     <t>check ec20_firmware</t>
   </si>
   <si>
     <t>ec20_firmware = "EC20CEFARGR07A01M4G_OCPU_AMT"</t>
   </si>
   <si>
+    <t>tc_10</t>
+  </si>
+  <si>
     <t>check ecall_auto_num</t>
   </si>
   <si>
@@ -129,18 +162,27 @@
     <t>ecall_auto_num="01056162092"</t>
   </si>
   <si>
+    <t>tc_11</t>
+  </si>
+  <si>
     <t>check ecall_manual_num</t>
   </si>
   <si>
     <t>ecall_manual_num="17818326300"</t>
   </si>
   <si>
+    <t>tc_12</t>
+  </si>
+  <si>
     <t>check icall_num</t>
   </si>
   <si>
     <t>icall_num="17818326300"</t>
   </si>
   <si>
+    <t>tc_13</t>
+  </si>
+  <si>
     <t>check gps_service</t>
   </si>
   <si>
@@ -150,6 +192,9 @@
     <t>gps_service = "V1.0.0"</t>
   </si>
   <si>
+    <t>tc_14</t>
+  </si>
+  <si>
     <t>check gprs_service</t>
   </si>
   <si>
@@ -159,6 +204,9 @@
     <t>gprs_service = "R.2.3.5"</t>
   </si>
   <si>
+    <t>tc_15</t>
+  </si>
+  <si>
     <t>check mcu_service</t>
   </si>
   <si>
@@ -168,6 +216,9 @@
     <t>mcu_service = "V1.3.0"</t>
   </si>
   <si>
+    <t>tc_16</t>
+  </si>
+  <si>
     <t>check hal_service</t>
   </si>
   <si>
@@ -177,6 +228,9 @@
     <t>hal_service = "V2.0.0"</t>
   </si>
   <si>
+    <t>tc_17</t>
+  </si>
+  <si>
     <t>check usb_service</t>
   </si>
   <si>
@@ -186,6 +240,195 @@
     <t>usb_service = "V1.0.0"</t>
   </si>
   <si>
+    <t>tc_18</t>
+  </si>
+  <si>
+    <t>check url_http</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep URL_HTTP,exit</t>
+  </si>
+  <si>
+    <t>URL_HTTP="test-th.bordrin.com"</t>
+  </si>
+  <si>
+    <t>tc_19</t>
+  </si>
+  <si>
+    <t>check socket_ip</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep SOCKET_IP,exit</t>
+  </si>
+  <si>
+    <t>SOCKET_IP="192.168.100.175"</t>
+  </si>
+  <si>
+    <t>tc_20</t>
+  </si>
+  <si>
+    <t>check socket_port</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep SOCKET_PORT,exit</t>
+  </si>
+  <si>
+    <t>SOCKET_PORT="9991"</t>
+  </si>
+  <si>
+    <t>tc_21</t>
+  </si>
+  <si>
+    <t>check socket_type</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep SOCKET_TYPE,exit</t>
+  </si>
+  <si>
+    <t>SOCKET_TYPE="tls"</t>
+  </si>
+  <si>
+    <t>tc_22</t>
+  </si>
+  <si>
+    <t>check ecall_enable</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep ECALL=,exit</t>
+  </si>
+  <si>
+    <t>ECALL="1"</t>
+  </si>
+  <si>
+    <t>tc_23</t>
+  </si>
+  <si>
+    <t>check bcall_enable</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep BCALL=,exit</t>
+  </si>
+  <si>
+    <t>BCALL="1"</t>
+  </si>
+  <si>
+    <t>tc_24</t>
+  </si>
+  <si>
+    <t>check icall_enable</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep ICALL=,exit</t>
+  </si>
+  <si>
+    <t>ICALL="1"</t>
+  </si>
+  <si>
+    <t>tc_25</t>
+  </si>
+  <si>
+    <t>check ecalltest_enable</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep ECALLTEST=,exit</t>
+  </si>
+  <si>
+    <t>ECALLTEST="1"</t>
+  </si>
+  <si>
+    <t>tc_26</t>
+  </si>
+  <si>
+    <t>check apn_name</t>
+  </si>
+  <si>
+    <t>apn_name="bjzwkj10.gzm2mapn"</t>
+  </si>
+  <si>
+    <t>tc_27</t>
+  </si>
+  <si>
+    <t>check apn_username</t>
+  </si>
+  <si>
+    <t>apn_username=""</t>
+  </si>
+  <si>
+    <t>tc_28</t>
+  </si>
+  <si>
+    <t>check apn_pwd</t>
+  </si>
+  <si>
+    <t>apn_pwd=""</t>
+  </si>
+  <si>
+    <t>tc_29</t>
+  </si>
+  <si>
+    <t>check pubilc_name</t>
+  </si>
+  <si>
+    <t>public_name="BJZWKJ03.GZM2MAPN"</t>
+  </si>
+  <si>
+    <t>tc_30</t>
+  </si>
+  <si>
+    <t>check public_username</t>
+  </si>
+  <si>
+    <t>public_username=""</t>
+  </si>
+  <si>
+    <t>tc_31</t>
+  </si>
+  <si>
+    <t>check public_pwd</t>
+  </si>
+  <si>
+    <t>public_pwd=""</t>
+  </si>
+  <si>
+    <t>tc_32</t>
+  </si>
+  <si>
+    <t>check mqtt_addr</t>
+  </si>
+  <si>
+    <t>mqtt_addr="iot-cn-st21sy4rn03-vpc.mqtt.iothub.aliyuncs.com"</t>
+  </si>
+  <si>
+    <t>tc_33</t>
+  </si>
+  <si>
+    <t>check mqtt_port</t>
+  </si>
+  <si>
+    <t>mqtt_port="1883"</t>
+  </si>
+  <si>
+    <t>tc_34</t>
+  </si>
+  <si>
+    <t>check http_addr</t>
+  </si>
+  <si>
+    <t>http_addr="tsp-test.private.baicmotor.com"</t>
+  </si>
+  <si>
+    <t>tc_35</t>
+  </si>
+  <si>
+    <t>check ota_addr</t>
+  </si>
+  <si>
+    <t>ota_addr="api-ota.private.baicmotor.com"</t>
+  </si>
+  <si>
+    <t>tc_36</t>
+  </si>
+  <si>
     <t>check car_type</t>
   </si>
   <si>
@@ -193,6 +436,105 @@
   </si>
   <si>
     <t>CAR_TYPE="FF"</t>
+  </si>
+  <si>
+    <t>tc_37</t>
+  </si>
+  <si>
+    <t>check PKI</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep "http_addr_type",exit</t>
+  </si>
+  <si>
+    <t>http_addr_type="1"</t>
+  </si>
+  <si>
+    <t>tc_38</t>
+  </si>
+  <si>
+    <t>check config</t>
+  </si>
+  <si>
+    <t>ifconfig,exit</t>
+  </si>
+  <si>
+    <t>bridge0</t>
+  </si>
+  <si>
+    <t>tc_39</t>
+  </si>
+  <si>
+    <t>check rmnet_data0</t>
+  </si>
+  <si>
+    <t>ifconfig | grep -A 7 "rmnet_data0",exit</t>
+  </si>
+  <si>
+    <t>rmnet_data0</t>
+  </si>
+  <si>
+    <t>tc_40</t>
+  </si>
+  <si>
+    <t>check rmnet_data1</t>
+  </si>
+  <si>
+    <t>ifconfig | grep -A 7 "rmnet_data1",exit</t>
+  </si>
+  <si>
+    <t>rmnet_data1</t>
+  </si>
+  <si>
+    <t>tc_41</t>
+  </si>
+  <si>
+    <t>ping tbox</t>
+  </si>
+  <si>
+    <t>ping 192.168.2.43 -w 10,exit</t>
+  </si>
+  <si>
+    <t>received, 0% packet loss</t>
+  </si>
+  <si>
+    <t>tc_42</t>
+  </si>
+  <si>
+    <t>ping GW</t>
+  </si>
+  <si>
+    <t>ping 192.168.2.55 -w 10,exit</t>
+  </si>
+  <si>
+    <t>tc_43</t>
+  </si>
+  <si>
+    <t>ping HUT</t>
+  </si>
+  <si>
+    <t>ping 192.168.4.32 -w 10,exit</t>
+  </si>
+  <si>
+    <t>tc_44</t>
+  </si>
+  <si>
+    <t>ping baidu</t>
+  </si>
+  <si>
+    <t>ping baidu.com -w 10,exit</t>
+  </si>
+  <si>
+    <t>tc_45</t>
+  </si>
+  <si>
+    <t>check TSP connect</t>
+  </si>
+  <si>
+    <t>cat /oemdata/logs/hal_info.log | grep "network_connect OK",exit</t>
+  </si>
+  <si>
+    <t>network_connect OK</t>
   </si>
 </sst>
 </file>
@@ -1150,17 +1492,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.4537037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.5555555555556" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
@@ -1168,7 +1510,7 @@
     <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1199,317 +1541,662 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="1">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/case.xlsx
+++ b/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8675"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,9 @@
     <t>check apn_name</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep apn_name=,exit</t>
+  </si>
+  <si>
     <t>apn_name="bjzwkj10.gzm2mapn"</t>
   </si>
   <si>
@@ -351,6 +354,9 @@
     <t>check apn_username</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep apn_username=,exit</t>
+  </si>
+  <si>
     <t>apn_username=""</t>
   </si>
   <si>
@@ -360,6 +366,9 @@
     <t>check apn_pwd</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep apn_pwd=,exit</t>
+  </si>
+  <si>
     <t>apn_pwd=""</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>check pubilc_name</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep public_name=,exit</t>
+  </si>
+  <si>
     <t>public_name="BJZWKJ03.GZM2MAPN"</t>
   </si>
   <si>
@@ -378,6 +390,9 @@
     <t>check public_username</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep public_username=,exit</t>
+  </si>
+  <si>
     <t>public_username=""</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>check public_pwd</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep public_pwd=,exit</t>
+  </si>
+  <si>
     <t>public_pwd=""</t>
   </si>
   <si>
@@ -396,6 +414,9 @@
     <t>check mqtt_addr</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep mqtt_addr=,exit</t>
+  </si>
+  <si>
     <t>mqtt_addr="iot-cn-st21sy4rn03-vpc.mqtt.iothub.aliyuncs.com"</t>
   </si>
   <si>
@@ -405,6 +426,9 @@
     <t>check mqtt_port</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep mqtt_port=,exit</t>
+  </si>
+  <si>
     <t>mqtt_port="1883"</t>
   </si>
   <si>
@@ -414,6 +438,9 @@
     <t>check http_addr</t>
   </si>
   <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep http_addr=,exit</t>
+  </si>
+  <si>
     <t>http_addr="tsp-test.private.baicmotor.com"</t>
   </si>
   <si>
@@ -421,6 +448,9 @@
   </si>
   <si>
     <t>check ota_addr</t>
+  </si>
+  <si>
+    <t>cat /oemdata/configs/7B120-1.cfg | grep ota_addr=,exit</t>
   </si>
   <si>
     <t>ota_addr="api-ota.private.baicmotor.com"</t>
@@ -540,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -563,6 +593,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -574,6 +625,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,21 +672,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,21 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -715,13 +745,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,24 +811,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -775,18 +859,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -799,36 +871,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -847,24 +895,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,12 +914,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +936,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -938,21 +983,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,152 +1041,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1167,57 +1197,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1494,19 +1527,19 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4537037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.225" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1083333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1956,247 +1989,277 @@
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2286,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2240,7 +2303,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
